--- a/tests/diff/testGetExcelDiff_01.xlsx
+++ b/tests/diff/testGetExcelDiff_01.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -418,7 +418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
